--- a/res/results.xlsx
+++ b/res/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10169\Documents\Github\Deep_Gravity\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97F83EA-3527-413D-9BBD-213CB109B7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD3D3F8-6314-4AE5-A4B4-4614ADAC5BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2136" yWindow="1740" windowWidth="14412" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10212" yWindow="1860" windowWidth="11280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>results path</t>
+    <t>CPC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,14 +407,13 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.109375" customWidth="1"/>
     <col min="2" max="3" width="8.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -456,6 +455,24 @@
       <c r="C2" s="1">
         <v>0.7</v>
       </c>
+      <c r="D2">
+        <v>6.2140000000000004</v>
+      </c>
+      <c r="E2">
+        <v>1.2171000000000001</v>
+      </c>
+      <c r="F2">
+        <v>1.3472999999999999</v>
+      </c>
+      <c r="G2">
+        <v>2.53E-2</v>
+      </c>
+      <c r="H2">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="I2">
+        <v>0.49349999999999999</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -463,6 +480,24 @@
         <v>2020</v>
       </c>
       <c r="C3" s="1"/>
+      <c r="D3">
+        <v>0.4783</v>
+      </c>
+      <c r="E3">
+        <v>0.67849999999999999</v>
+      </c>
+      <c r="F3">
+        <v>1.8401000000000001</v>
+      </c>
+      <c r="G3">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="H3">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="I3">
+        <v>0.33379999999999999</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -472,6 +507,24 @@
         <v>2019</v>
       </c>
       <c r="C4" s="1"/>
+      <c r="D4">
+        <v>2.6905000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.62860000000000005</v>
+      </c>
+      <c r="F4">
+        <v>1.1989000000000001</v>
+      </c>
+      <c r="G4">
+        <v>1.04E-2</v>
+      </c>
+      <c r="H4">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="I4">
+        <v>0.93430000000000002</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -479,6 +532,24 @@
         <v>2020</v>
       </c>
       <c r="C5" s="1"/>
+      <c r="D5">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="E5">
+        <v>0.60289999999999999</v>
+      </c>
+      <c r="F5">
+        <v>1.7804</v>
+      </c>
+      <c r="G5">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="H5">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="I5">
+        <v>0.88670000000000004</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -488,6 +559,24 @@
         <v>2019</v>
       </c>
       <c r="C6" s="1"/>
+      <c r="D6">
+        <v>10.9634</v>
+      </c>
+      <c r="E6">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="F6">
+        <v>0.89170000000000005</v>
+      </c>
+      <c r="G6">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="H6">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="I6">
+        <v>0.79349999999999998</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -495,6 +584,24 @@
         <v>2020</v>
       </c>
       <c r="C7" s="1"/>
+      <c r="D7">
+        <v>0.63109999999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.58950000000000002</v>
+      </c>
+      <c r="F7">
+        <v>1.7041999999999999</v>
+      </c>
+      <c r="G7">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="H7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I7">
+        <v>0.82899999999999996</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -504,6 +611,24 @@
         <v>2019</v>
       </c>
       <c r="C8" s="1"/>
+      <c r="D8">
+        <v>2.806</v>
+      </c>
+      <c r="E8">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="F8">
+        <v>1.2042999999999999</v>
+      </c>
+      <c r="G8">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="H8">
+        <v>3.3E-3</v>
+      </c>
+      <c r="I8">
+        <v>0.92200000000000004</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
@@ -511,6 +636,24 @@
         <v>2020</v>
       </c>
       <c r="C9" s="1"/>
+      <c r="D9">
+        <v>0.43009999999999998</v>
+      </c>
+      <c r="E9">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="F9">
+        <v>1.7761</v>
+      </c>
+      <c r="G9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H9">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="I9">
+        <v>0.85050000000000003</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/res/results.xlsx
+++ b/res/results.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10169\Documents\Github\Deep_Gravity\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaihangzhang/Downloads/GitHub/Deep_Gravity/res/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD3D3F8-6314-4AE5-A4B4-4614ADAC5BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50AC983-DA17-174F-BA7F-327744F989FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10212" yWindow="1860" windowWidth="11280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="By model" sheetId="1" r:id="rId1"/>
+    <sheet name="By year" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>Model \ Deviation</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,37 +88,73 @@
   <si>
     <t>CPC</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>GCN</t>
+  </si>
+  <si>
+    <t>delta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -115,14 +162,200 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -404,19 +637,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="225" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="2" max="3" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,14 +678,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>2019</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>0.7</v>
       </c>
       <c r="D2">
@@ -474,12 +707,14 @@
         <v>0.49349999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3">
         <v>2020</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="2">
+        <v>0.7</v>
+      </c>
       <c r="D3">
         <v>0.4783</v>
       </c>
@@ -499,118 +734,138 @@
         <v>0.33379999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="D4">
+        <f>(D3-D2)/D2*100</f>
+        <v>-92.302864499517227</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:I4" si="0">(E3-E2)/E2*100</f>
+        <v>-44.252731903705531</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>36.576857418540797</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>-61.264822134387352</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>-36.111111111111107</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>-32.360688956433641</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
         <v>2019</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4">
-        <v>2.6905000000000001</v>
-      </c>
-      <c r="E4">
-        <v>0.62860000000000005</v>
-      </c>
-      <c r="F4">
-        <v>1.1989000000000001</v>
-      </c>
-      <c r="G4">
-        <v>1.04E-2</v>
-      </c>
-      <c r="H4">
-        <v>3.0999999999999999E-3</v>
-      </c>
-      <c r="I4">
-        <v>0.93430000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5">
+      <c r="C5" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="D5">
+        <v>10.9634</v>
+      </c>
+      <c r="E5">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="F5">
+        <v>0.89170000000000005</v>
+      </c>
+      <c r="G5">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="H5">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="I5">
+        <v>0.79349999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6">
         <v>2020</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="E5">
-        <v>0.60289999999999999</v>
-      </c>
-      <c r="F5">
-        <v>1.7804</v>
-      </c>
-      <c r="G5">
-        <v>8.3000000000000001E-3</v>
-      </c>
-      <c r="H5">
-        <v>3.8999999999999998E-3</v>
-      </c>
-      <c r="I5">
-        <v>0.88670000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>2019</v>
-      </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="2">
+        <v>0.7</v>
+      </c>
       <c r="D6">
-        <v>10.9634</v>
+        <v>0.63109999999999999</v>
       </c>
       <c r="E6">
-        <v>0.99839999999999995</v>
+        <v>0.58950000000000002</v>
       </c>
       <c r="F6">
-        <v>0.89170000000000005</v>
+        <v>1.7041999999999999</v>
       </c>
       <c r="G6">
-        <v>2.7799999999999998E-2</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="H6">
-        <v>1.2699999999999999E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="I6">
-        <v>0.79349999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.82899999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7">
-        <v>2020</v>
-      </c>
-      <c r="C7" s="1"/>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.7</v>
+      </c>
       <c r="D7">
-        <v>0.63109999999999999</v>
+        <f>(D6-D5)/D5*100</f>
+        <v>-94.243574073736241</v>
       </c>
       <c r="E7">
-        <v>0.58950000000000002</v>
+        <f t="shared" ref="E7" si="1">(E6-E5)/E5*100</f>
+        <v>-40.955528846153847</v>
       </c>
       <c r="F7">
-        <v>1.7041999999999999</v>
+        <f t="shared" ref="F7" si="2">(F6-F5)/F5*100</f>
+        <v>91.118089043400232</v>
       </c>
       <c r="G7">
-        <v>1.0800000000000001E-2</v>
+        <f t="shared" ref="G7" si="3">(G6-G5)/G5*100</f>
+        <v>-61.151079136690647</v>
       </c>
       <c r="H7">
-        <v>6.0000000000000001E-3</v>
+        <f t="shared" ref="H7" si="4">(H6-H5)/H5*100</f>
+        <v>-52.755905511811022</v>
       </c>
       <c r="I7">
-        <v>0.82899999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I7" si="5">(I6-I5)/I5*100</f>
+        <v>4.4738500315059833</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B8">
         <v>2019</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="2">
+        <v>0.7</v>
+      </c>
       <c r="D8">
         <v>2.806</v>
       </c>
@@ -630,12 +885,14 @@
         <v>0.92200000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9">
         <v>2020</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="2">
+        <v>0.7</v>
+      </c>
       <c r="D9">
         <v>0.43009999999999998</v>
       </c>
@@ -655,15 +912,402 @@
         <v>0.85050000000000003</v>
       </c>
     </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="D10">
+        <f>(D9-D8)/D8*100</f>
+        <v>-84.672131147540981</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10" si="6">(E9-E8)/E8*100</f>
+        <v>-10.487444608567218</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10" si="7">(F9-F8)/F8*100</f>
+        <v>47.479863821306992</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ref="G10" si="8">(G9-G8)/G8*100</f>
+        <v>-15.887850467289722</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ref="H10" si="9">(H9-H8)/H8*100</f>
+        <v>24.242424242424253</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ref="I10" si="10">(I9-I8)/I8*100</f>
+        <v>-7.7548806941431678</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>2019</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="D12">
+        <v>2.6905000000000001</v>
+      </c>
+      <c r="E12">
+        <v>0.62860000000000005</v>
+      </c>
+      <c r="F12">
+        <v>1.1989000000000001</v>
+      </c>
+      <c r="G12">
+        <v>1.04E-2</v>
+      </c>
+      <c r="H12">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="I12">
+        <v>0.93430000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>2020</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="D13">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="E13">
+        <v>0.60289999999999999</v>
+      </c>
+      <c r="F13">
+        <v>1.7804</v>
+      </c>
+      <c r="G13">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="H13">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="I13">
+        <v>0.88670000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="D14">
+        <f>(D13-D12)/D12*100</f>
+        <v>-84.798364616242338</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14" si="11">(E13-E12)/E12*100</f>
+        <v>-4.088450524976146</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14" si="12">(F13-F12)/F12*100</f>
+        <v>48.502794228042362</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14" si="13">(G13-G12)/G12*100</f>
+        <v>-20.192307692307686</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14" si="14">(H13-H12)/H12*100</f>
+        <v>25.806451612903224</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ref="I14" si="15">(I13-I12)/I12*100</f>
+        <v>-5.0947233222733566</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C78D22-9D9E-5C44-B544-A62BAFF99FB6}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView zoomScale="214" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20">
+        <v>2019</v>
+      </c>
+      <c r="C2" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="D2" s="3">
+        <v>6.2140000000000004</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1.2171000000000001</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1.3472999999999999</v>
+      </c>
+      <c r="G2" s="24">
+        <v>2.53E-2</v>
+      </c>
+      <c r="H2" s="24">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="I2" s="29">
+        <v>0.49349999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="7">
+        <v>10.9634</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0.89170000000000005</v>
+      </c>
+      <c r="G3" s="26">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="H3" s="26">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="I3" s="31">
+        <v>0.79349999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="10">
+        <v>2.806</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1.2042999999999999</v>
+      </c>
+      <c r="G4" s="27">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="H4" s="27">
+        <v>3.3E-3</v>
+      </c>
+      <c r="I4" s="32">
+        <v>0.92200000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="20">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="3">
+        <v>0.4783</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.67849999999999999</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1.8401000000000001</v>
+      </c>
+      <c r="G5" s="24">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="H5" s="24">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="I5" s="29">
+        <v>0.33379999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="7">
+        <v>0.63109999999999999</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.58950000000000002</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1.7041999999999999</v>
+      </c>
+      <c r="G6" s="26">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="H6" s="26">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I6" s="31">
+        <v>0.82899999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="10">
+        <v>0.43009999999999998</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1.7761</v>
+      </c>
+      <c r="G7" s="27">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H7" s="27">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="I7" s="32">
+        <v>0.85050000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="5">
+        <v>2.6905000000000001</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.62860000000000005</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1.1989000000000001</v>
+      </c>
+      <c r="G10" s="25">
+        <v>1.04E-2</v>
+      </c>
+      <c r="H10" s="25">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="I10" s="30">
+        <v>0.93430000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="33">
+        <v>2020</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="5">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.60289999999999999</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1.7804</v>
+      </c>
+      <c r="G11" s="25">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="H11" s="25">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="I11" s="30">
+        <v>0.88670000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I7">
+    <sortCondition ref="B2:B7"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>